--- a/app/vendors/PHPExcel/Tests/05featuredemo.xlsx
+++ b/app/vendors/PHPExcel/Tests/05featuredemo.xlsx
@@ -30,7 +30,7 @@
             <i val="false"/>
             <strike val="false"/>
             <color rgb="FF000000"/>
-            <sz val="10"/>
+            <sz val="11"/>
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">PHPExcel:</t>
@@ -42,7 +42,7 @@
             <i val="false"/>
             <strike val="false"/>
             <color rgb="FF000000"/>
-            <sz val="10"/>
+            <sz val="11"/>
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">
@@ -55,7 +55,7 @@
             <i val="false"/>
             <strike val="false"/>
             <color rgb="FF000000"/>
-            <sz val="10"/>
+            <sz val="11"/>
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">Total amount on the current invoice, excluding VAT.</t>
@@ -71,7 +71,7 @@
             <i val="false"/>
             <strike val="false"/>
             <color rgb="FF000000"/>
-            <sz val="10"/>
+            <sz val="11"/>
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">PHPExcel:</t>
@@ -83,7 +83,7 @@
             <i val="false"/>
             <strike val="false"/>
             <color rgb="FF000000"/>
-            <sz val="10"/>
+            <sz val="11"/>
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">
@@ -96,7 +96,7 @@
             <i val="false"/>
             <strike val="false"/>
             <color rgb="FF000000"/>
-            <sz val="10"/>
+            <sz val="11"/>
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">Total amount of VAT on the current invoice.</t>
@@ -112,7 +112,7 @@
             <i val="false"/>
             <strike val="false"/>
             <color rgb="FF000000"/>
-            <sz val="10"/>
+            <sz val="11"/>
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">PHPExcel:</t>
@@ -124,7 +124,7 @@
             <i val="false"/>
             <strike val="false"/>
             <color rgb="FF000000"/>
-            <sz val="10"/>
+            <sz val="11"/>
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">
@@ -137,7 +137,7 @@
             <i val="false"/>
             <strike val="false"/>
             <color rgb="FF000000"/>
-            <sz val="10"/>
+            <sz val="11"/>
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">Total amount on the current invoice, including VAT.</t>
@@ -197,7 +197,7 @@
         <i val="true"/>
         <strike val="false"/>
         <color rgb="FF008000"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <u val="none"/>
       </rPr>
       <t xml:space="preserve">payable within thirty days after the end of the month</t>
@@ -220,30 +220,35 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yy/mm/dd;@"/>
-    <numFmt numFmtId="166" formatCode="[$EUR ]#,##0.00_-"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$EUR ]#,##0.00_-"/>
   </numFmts>
   <fonts count="6">
     <font>
       <name val="Calibri"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <u val="none"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <name val="Candara"/>
+      <sz val="20"/>
+      <b val="true"/>
+      <u val="single"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+      <b val="true"/>
       <u val="none"/>
       <color rgb="FF000000"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <u val="none"/>
       <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10"/>
-      <b val="true"/>
-      <u val="none"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
       <name val="Candara"/>
@@ -256,13 +261,6 @@
       <name val="Calibri"/>
       <sz val="8"/>
       <u val="none"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="Candara"/>
-      <sz val="20"/>
-      <b val="true"/>
-      <u val="single"/>
       <color rgb="FF000000"/>
     </font>
   </fonts>
@@ -296,9 +294,40 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="8">
-    <border outline="true"/>
-    <border outline="true">
+  <borders count="11">
+    <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -306,12 +335,31 @@
         <color rgb="FF000000"/>
       </top>
     </border>
-    <border outline="true">
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
     </border>
-    <border outline="true">
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF993300"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF993300"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF993300"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thick">
         <color rgb="FF993300"/>
       </right>
@@ -322,112 +370,86 @@
         <color rgb="FF993300"/>
       </bottom>
     </border>
-    <border outline="true">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border outline="true">
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border outline="true">
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border outline="true">
-      <left style="thick">
-        <color rgb="FF993300"/>
-      </left>
-      <top style="thick">
-        <color rgb="FF993300"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF993300"/>
-      </bottom>
-    </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="1" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="166" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="166" fillId="0" borderId="2" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="166" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
+  <cellXfs count="25">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="true"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="6" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="7" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="8" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="0" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="15" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="true"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,7 +538,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>-95250</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -872,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr codeName="Invoice">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
@@ -883,65 +905,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="19.38" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="12.00" customWidth="true"/>
-    <col min="5" max="5" width="12.00" customWidth="true"/>
+    <col min="2" max="2" width="20.059" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="13" t="s"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="16" t="s"/>
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s"/>
-      <c r="D1" s="2">
-        <v>39864.3689236111</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="16" t="s"/>
+      <c r="D1" s="17">
+        <v>40023</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10"/>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="10">
+      <c r="A4" s="6">
         <v>1001</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>20</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="11">
         <f>C4 * D4</f>
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="12">
+      <c r="A5" s="7">
         <v>1012</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
@@ -950,100 +971,91 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="12">
         <f>C5 * D5</f>
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12" t="s"/>
-      <c r="E6" s="4">
+      <c r="A6" s="7"/>
+      <c r="E6" s="12">
         <f>C6 * D6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12" t="s"/>
-      <c r="E7" s="4">
+      <c r="A7" s="7"/>
+      <c r="E7" s="12">
         <f>C7 * D7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="12" t="s"/>
-      <c r="E8" s="4">
+      <c r="A8" s="7"/>
+      <c r="E8" s="12">
         <f>C8 * D8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="12" t="s"/>
-      <c r="E9" s="4">
+      <c r="A9" s="7"/>
+      <c r="E9" s="12">
         <f>C9 * D9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="12" t="s"/>
-      <c r="E10" s="4" t="s"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="11" t="s"/>
-      <c r="B11" s="11" t="s"/>
-      <c r="C11" s="11" t="s"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <f>SUM( E4:E9 )</f>
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <f>E11 * 0.21</f>
         <v>13.44</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="15">
         <f>E11 + E12</f>
         <v>77.44</v>
       </c>
     </row>
-    <row r="14" spans="1:10"/>
     <row r="15" spans="1:10">
-      <c r="B15" t="s"/>
-    </row>
-    <row r="16" spans="1:10"/>
-    <row r="17" spans="1:10"/>
+      <c r="B15"/>
+    </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10"/>
-    <row r="20" spans="1:10"/>
-    <row r="21" spans="1:10"/>
-    <row r="22" spans="1:10"/>
-    <row r="23" spans="1:10"/>
     <row r="24" spans="1:10">
-      <c r="D24" t="s"/>
-    </row>
-    <row r="25" spans="1:10"/>
+      <c r="D24"/>
+    </row>
     <row r="26" spans="1:10">
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1060,7 +1072,7 @@
     <hyperlink ref="E27" location="'Terms and conditions'!A1" tooltip="Review terms and conditions"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" fitToHeight="0" fitToWidth="0"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;L&amp;BInvoice&amp;RPrinted on &amp;D</oddHeader>
@@ -1077,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr codeName="Terms and conditions">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:B14"/>
@@ -1088,49 +1100,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="80.00" customWidth="true"/>
+    <col min="1" max="1" width="80" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2"/>
     <row r="3" spans="1:2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2"/>
-    <row r="8" spans="1:2"/>
-    <row r="9" spans="1:2"/>
-    <row r="10" spans="1:2"/>
-    <row r="11" spans="1:2"/>
-    <row r="12" spans="1:2"/>
-    <row r="13" spans="1:2"/>
     <row r="14" spans="1:2">
       <c r="B14" t="s"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" fitToHeight="0" fitToWidth="0"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
